--- a/Datasets/dataset_1.xlsx
+++ b/Datasets/dataset_1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Prace domowe\Studia IV rok\AGH\Inżynierka\Project\Datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896FFFCE-A5C1-4E65-86C7-5CB77EB5DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset1" sheetId="1" r:id="rId1"/>
@@ -13,8 +19,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataset1!$B$2:$B$398</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">dataset1!$H$4</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -23,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="158">
   <si>
     <t>employee_id</t>
   </si>
@@ -497,16 +510,13 @@
   </si>
   <si>
     <t>7.0000</t>
-  </si>
-  <si>
-    <t>(397 wierszy) 7940</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -598,7 +608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,9 +640,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,6 +692,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -839,14 +885,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E399"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
@@ -856,7 +902,7 @@
     <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -890,7 +936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -907,7 +953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -924,7 +970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -941,7 +987,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -958,7 +1004,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -975,7 +1021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -992,7 +1038,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1009,7 +1055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -1026,7 +1072,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -1043,7 +1089,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -1060,7 +1106,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -1077,7 +1123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1094,7 +1140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1111,7 +1157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1128,7 +1174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1145,7 +1191,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1162,7 +1208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1179,7 +1225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1196,7 +1242,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1213,7 +1259,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1230,7 +1276,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1247,7 +1293,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1264,7 +1310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1281,7 +1327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1298,7 +1344,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1315,7 +1361,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1332,7 +1378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1349,7 +1395,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1366,7 +1412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -1383,7 +1429,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -1400,7 +1446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -1417,7 +1463,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -1434,7 +1480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -1451,7 +1497,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -1468,7 +1514,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>140</v>
       </c>
@@ -1485,7 +1531,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -1502,7 +1548,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -1519,7 +1565,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -1536,7 +1582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -1553,7 +1599,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -1570,7 +1616,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -1587,7 +1633,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -1604,7 +1650,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -1621,7 +1667,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -1638,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -1655,7 +1701,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -1672,7 +1718,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -1689,7 +1735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -1706,7 +1752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1723,7 +1769,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1740,7 +1786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -1757,7 +1803,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -1774,7 +1820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -1791,7 +1837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -1808,7 +1854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -1825,7 +1871,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -1842,7 +1888,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -1859,7 +1905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -1876,7 +1922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -1893,7 +1939,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -1910,7 +1956,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -1927,7 +1973,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -1944,7 +1990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -1961,7 +2007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -1978,7 +2024,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -1995,7 +2041,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2012,7 +2058,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2029,7 +2075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -2046,7 +2092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -2063,7 +2109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -2080,7 +2126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -2097,7 +2143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -2114,7 +2160,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -2131,7 +2177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -2148,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -2165,7 +2211,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -2182,7 +2228,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -2199,7 +2245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -2216,7 +2262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -2233,7 +2279,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>131</v>
       </c>
@@ -2250,7 +2296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2267,7 +2313,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2284,7 +2330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2301,7 +2347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2318,7 +2364,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2335,7 +2381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -2352,7 +2398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -2369,7 +2415,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2386,7 +2432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>25</v>
       </c>
@@ -2403,7 +2449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -2420,7 +2466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -2437,7 +2483,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -2454,7 +2500,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -2471,7 +2517,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -2488,7 +2534,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>25</v>
       </c>
@@ -2505,7 +2551,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -2522,7 +2568,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>25</v>
       </c>
@@ -2539,7 +2585,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>25</v>
       </c>
@@ -2556,7 +2602,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>25</v>
       </c>
@@ -2573,7 +2619,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>25</v>
       </c>
@@ -2590,7 +2636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -2607,7 +2653,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -2624,7 +2670,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -2641,7 +2687,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -2658,7 +2704,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>25</v>
       </c>
@@ -2675,7 +2721,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -2692,7 +2738,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>25</v>
       </c>
@@ -2709,7 +2755,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -2726,7 +2772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>40</v>
       </c>
@@ -2743,7 +2789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>40</v>
       </c>
@@ -2760,7 +2806,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -2777,7 +2823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>40</v>
       </c>
@@ -2794,7 +2840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>40</v>
       </c>
@@ -2811,7 +2857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -2828,7 +2874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>32</v>
       </c>
@@ -2845,7 +2891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>32</v>
       </c>
@@ -2862,7 +2908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -2879,7 +2925,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -2896,7 +2942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -2913,7 +2959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -2930,7 +2976,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -2947,7 +2993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -2964,7 +3010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -2981,7 +3027,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -2998,7 +3044,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -3015,7 +3061,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>32</v>
       </c>
@@ -3032,7 +3078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -3049,7 +3095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>32</v>
       </c>
@@ -3066,7 +3112,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>32</v>
       </c>
@@ -3083,7 +3129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
@@ -3100,7 +3146,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -3117,7 +3163,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>32</v>
       </c>
@@ -3134,7 +3180,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>32</v>
       </c>
@@ -3151,7 +3197,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -3168,7 +3214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>32</v>
       </c>
@@ -3185,7 +3231,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>32</v>
       </c>
@@ -3202,7 +3248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>32</v>
       </c>
@@ -3219,7 +3265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -3236,7 +3282,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -3253,7 +3299,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>32</v>
       </c>
@@ -3270,7 +3316,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>32</v>
       </c>
@@ -3287,7 +3333,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>32</v>
       </c>
@@ -3304,7 +3350,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>32</v>
       </c>
@@ -3321,7 +3367,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>32</v>
       </c>
@@ -3338,7 +3384,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>32</v>
       </c>
@@ -3355,7 +3401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>32</v>
       </c>
@@ -3372,7 +3418,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -3389,7 +3435,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>32</v>
       </c>
@@ -3406,7 +3452,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>32</v>
       </c>
@@ -3423,7 +3469,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>32</v>
       </c>
@@ -3440,7 +3486,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>32</v>
       </c>
@@ -3457,7 +3503,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>32</v>
       </c>
@@ -3474,7 +3520,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>108</v>
       </c>
@@ -3491,7 +3537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>35</v>
       </c>
@@ -3508,7 +3554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>35</v>
       </c>
@@ -3525,7 +3571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>35</v>
       </c>
@@ -3542,7 +3588,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>35</v>
       </c>
@@ -3559,7 +3605,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -3576,7 +3622,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -3593,7 +3639,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -3610,7 +3656,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>35</v>
       </c>
@@ -3627,7 +3673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>35</v>
       </c>
@@ -3644,7 +3690,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>35</v>
       </c>
@@ -3661,7 +3707,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>35</v>
       </c>
@@ -3678,7 +3724,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>35</v>
       </c>
@@ -3695,7 +3741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>35</v>
       </c>
@@ -3712,7 +3758,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>35</v>
       </c>
@@ -3729,7 +3775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>35</v>
       </c>
@@ -3746,7 +3792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>35</v>
       </c>
@@ -3763,7 +3809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>151</v>
       </c>
@@ -3780,7 +3826,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>67</v>
       </c>
@@ -3797,7 +3843,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>145</v>
       </c>
@@ -3814,7 +3860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -3831,7 +3877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>27</v>
       </c>
@@ -3848,7 +3894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>27</v>
       </c>
@@ -3865,7 +3911,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>27</v>
       </c>
@@ -3882,7 +3928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -3899,7 +3945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>27</v>
       </c>
@@ -3916,7 +3962,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>27</v>
       </c>
@@ -3933,7 +3979,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>27</v>
       </c>
@@ -3950,7 +3996,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>27</v>
       </c>
@@ -3967,7 +4013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>27</v>
       </c>
@@ -3984,7 +4030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -4001,7 +4047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>27</v>
       </c>
@@ -4018,7 +4064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>27</v>
       </c>
@@ -4035,7 +4081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>27</v>
       </c>
@@ -4052,7 +4098,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>27</v>
       </c>
@@ -4069,7 +4115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>27</v>
       </c>
@@ -4086,7 +4132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>27</v>
       </c>
@@ -4103,7 +4149,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>27</v>
       </c>
@@ -4120,7 +4166,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>27</v>
       </c>
@@ -4137,7 +4183,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>59</v>
       </c>
@@ -4154,7 +4200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>59</v>
       </c>
@@ -4171,7 +4217,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>59</v>
       </c>
@@ -4188,7 +4234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>59</v>
       </c>
@@ -4205,7 +4251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>59</v>
       </c>
@@ -4222,7 +4268,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>59</v>
       </c>
@@ -4239,7 +4285,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>59</v>
       </c>
@@ -4256,7 +4302,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>59</v>
       </c>
@@ -4273,7 +4319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>59</v>
       </c>
@@ -4290,7 +4336,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>59</v>
       </c>
@@ -4307,7 +4353,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>59</v>
       </c>
@@ -4324,7 +4370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>59</v>
       </c>
@@ -4341,7 +4387,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>77</v>
       </c>
@@ -4358,7 +4404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>77</v>
       </c>
@@ -4375,7 +4421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>77</v>
       </c>
@@ -4392,7 +4438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>77</v>
       </c>
@@ -4409,7 +4455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>77</v>
       </c>
@@ -4426,7 +4472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>77</v>
       </c>
@@ -4443,7 +4489,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>77</v>
       </c>
@@ -4460,7 +4506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>77</v>
       </c>
@@ -4477,7 +4523,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>77</v>
       </c>
@@ -4494,7 +4540,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>52</v>
       </c>
@@ -4511,7 +4557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>52</v>
       </c>
@@ -4528,7 +4574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>52</v>
       </c>
@@ -4545,7 +4591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>52</v>
       </c>
@@ -4562,7 +4608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>52</v>
       </c>
@@ -4579,7 +4625,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>52</v>
       </c>
@@ -4596,7 +4642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>52</v>
       </c>
@@ -4613,7 +4659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>52</v>
       </c>
@@ -4630,7 +4676,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>52</v>
       </c>
@@ -4647,7 +4693,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>52</v>
       </c>
@@ -4664,7 +4710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>52</v>
       </c>
@@ -4681,7 +4727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>52</v>
       </c>
@@ -4698,7 +4744,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>52</v>
       </c>
@@ -4715,7 +4761,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>52</v>
       </c>
@@ -4732,7 +4778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>52</v>
       </c>
@@ -4749,7 +4795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>52</v>
       </c>
@@ -4766,7 +4812,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>52</v>
       </c>
@@ -4783,7 +4829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>52</v>
       </c>
@@ -4800,7 +4846,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>52</v>
       </c>
@@ -4817,7 +4863,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>52</v>
       </c>
@@ -4834,7 +4880,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>52</v>
       </c>
@@ -4851,7 +4897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>52</v>
       </c>
@@ -4868,7 +4914,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>52</v>
       </c>
@@ -4885,7 +4931,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>52</v>
       </c>
@@ -4902,7 +4948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>52</v>
       </c>
@@ -4919,7 +4965,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>52</v>
       </c>
@@ -4936,7 +4982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>52</v>
       </c>
@@ -4953,7 +4999,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>52</v>
       </c>
@@ -4970,7 +5016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>52</v>
       </c>
@@ -4987,7 +5033,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>52</v>
       </c>
@@ -5004,7 +5050,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>52</v>
       </c>
@@ -5021,7 +5067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>52</v>
       </c>
@@ -5038,7 +5084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>52</v>
       </c>
@@ -5055,7 +5101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>52</v>
       </c>
@@ -5072,7 +5118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>52</v>
       </c>
@@ -5089,7 +5135,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>52</v>
       </c>
@@ -5106,7 +5152,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>52</v>
       </c>
@@ -5123,7 +5169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>52</v>
       </c>
@@ -5140,7 +5186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>52</v>
       </c>
@@ -5157,7 +5203,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>52</v>
       </c>
@@ -5174,7 +5220,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>52</v>
       </c>
@@ -5191,7 +5237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>52</v>
       </c>
@@ -5208,7 +5254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>52</v>
       </c>
@@ -5225,7 +5271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>52</v>
       </c>
@@ -5242,7 +5288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>52</v>
       </c>
@@ -5259,7 +5305,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>52</v>
       </c>
@@ -5276,7 +5322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>52</v>
       </c>
@@ -5293,7 +5339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>52</v>
       </c>
@@ -5310,7 +5356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>52</v>
       </c>
@@ -5327,7 +5373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>52</v>
       </c>
@@ -5344,7 +5390,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>52</v>
       </c>
@@ -5361,7 +5407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>52</v>
       </c>
@@ -5378,7 +5424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>52</v>
       </c>
@@ -5395,7 +5441,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>52</v>
       </c>
@@ -5412,7 +5458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>52</v>
       </c>
@@ -5429,7 +5475,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>52</v>
       </c>
@@ -5446,7 +5492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>52</v>
       </c>
@@ -5463,7 +5509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>52</v>
       </c>
@@ -5480,7 +5526,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>52</v>
       </c>
@@ -5497,7 +5543,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>52</v>
       </c>
@@ -5514,7 +5560,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>52</v>
       </c>
@@ -5531,7 +5577,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>52</v>
       </c>
@@ -5548,7 +5594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>52</v>
       </c>
@@ -5565,7 +5611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>52</v>
       </c>
@@ -5582,7 +5628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>52</v>
       </c>
@@ -5599,7 +5645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>52</v>
       </c>
@@ -5616,7 +5662,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>52</v>
       </c>
@@ -5633,7 +5679,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>52</v>
       </c>
@@ -5650,7 +5696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>52</v>
       </c>
@@ -5667,7 +5713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>52</v>
       </c>
@@ -5684,7 +5730,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>52</v>
       </c>
@@ -5701,7 +5747,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>52</v>
       </c>
@@ -5718,7 +5764,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>52</v>
       </c>
@@ -5735,7 +5781,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>61</v>
       </c>
@@ -5752,7 +5798,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>61</v>
       </c>
@@ -5769,7 +5815,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>61</v>
       </c>
@@ -5786,7 +5832,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>61</v>
       </c>
@@ -5803,7 +5849,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>137</v>
       </c>
@@ -5820,7 +5866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>70</v>
       </c>
@@ -5837,7 +5883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>70</v>
       </c>
@@ -5854,7 +5900,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>70</v>
       </c>
@@ -5871,7 +5917,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>114</v>
       </c>
@@ -5888,7 +5934,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>114</v>
       </c>
@@ -5905,7 +5951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>63</v>
       </c>
@@ -5922,7 +5968,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>63</v>
       </c>
@@ -5939,7 +5985,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>112</v>
       </c>
@@ -5956,7 +6002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>112</v>
       </c>
@@ -5973,7 +6019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>43</v>
       </c>
@@ -5990,7 +6036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>43</v>
       </c>
@@ -6007,7 +6053,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>43</v>
       </c>
@@ -6024,7 +6070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>43</v>
       </c>
@@ -6041,7 +6087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>43</v>
       </c>
@@ -6058,7 +6104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>43</v>
       </c>
@@ -6075,7 +6121,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>43</v>
       </c>
@@ -6092,7 +6138,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>144</v>
       </c>
@@ -6109,7 +6155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>144</v>
       </c>
@@ -6126,7 +6172,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>144</v>
       </c>
@@ -6143,7 +6189,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>144</v>
       </c>
@@ -6160,7 +6206,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>94</v>
       </c>
@@ -6177,7 +6223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>94</v>
       </c>
@@ -6194,7 +6240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>94</v>
       </c>
@@ -6211,7 +6257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>71</v>
       </c>
@@ -6228,7 +6274,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>71</v>
       </c>
@@ -6245,7 +6291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>71</v>
       </c>
@@ -6262,7 +6308,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>41</v>
       </c>
@@ -6279,7 +6325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>41</v>
       </c>
@@ -6296,7 +6342,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>41</v>
       </c>
@@ -6313,7 +6359,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>41</v>
       </c>
@@ -6330,7 +6376,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>41</v>
       </c>
@@ -6347,7 +6393,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>55</v>
       </c>
@@ -6364,7 +6410,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>55</v>
       </c>
@@ -6381,7 +6427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>55</v>
       </c>
@@ -6398,7 +6444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>55</v>
       </c>
@@ -6415,7 +6461,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -6432,7 +6478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -6449,7 +6495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>9</v>
       </c>
@@ -6466,7 +6512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -6483,7 +6529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -6500,7 +6546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -6517,7 +6563,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -6534,7 +6580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -6551,7 +6597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>9</v>
       </c>
@@ -6568,7 +6614,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>9</v>
       </c>
@@ -6585,7 +6631,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>9</v>
       </c>
@@ -6602,7 +6648,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -6619,7 +6665,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>9</v>
       </c>
@@ -6636,7 +6682,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>9</v>
       </c>
@@ -6653,7 +6699,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -6670,7 +6716,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>9</v>
       </c>
@@ -6687,7 +6733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -6704,7 +6750,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>9</v>
       </c>
@@ -6721,7 +6767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>125</v>
       </c>
@@ -6738,7 +6784,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>146</v>
       </c>
@@ -6755,7 +6801,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>146</v>
       </c>
@@ -6772,7 +6818,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>146</v>
       </c>
@@ -6789,7 +6835,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>5</v>
       </c>
@@ -6806,7 +6852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -6823,7 +6869,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>5</v>
       </c>
@@ -6840,7 +6886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>5</v>
       </c>
@@ -6857,7 +6903,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -6874,7 +6920,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>5</v>
       </c>
@@ -6891,7 +6937,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>5</v>
       </c>
@@ -6908,7 +6954,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>5</v>
       </c>
@@ -6925,7 +6971,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>5</v>
       </c>
@@ -6942,7 +6988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>5</v>
       </c>
@@ -6959,7 +7005,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>5</v>
       </c>
@@ -6976,7 +7022,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>5</v>
       </c>
@@ -6993,7 +7039,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>113</v>
       </c>
@@ -7010,7 +7056,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>113</v>
       </c>
@@ -7027,7 +7073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>78</v>
       </c>
@@ -7044,7 +7090,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>78</v>
       </c>
@@ -7061,7 +7107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>78</v>
       </c>
@@ -7078,7 +7124,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>78</v>
       </c>
@@ -7095,7 +7141,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>78</v>
       </c>
@@ -7112,7 +7158,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>78</v>
       </c>
@@ -7129,7 +7175,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>78</v>
       </c>
@@ -7146,7 +7192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>18</v>
       </c>
@@ -7163,7 +7209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>18</v>
       </c>
@@ -7180,7 +7226,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>18</v>
       </c>
@@ -7197,7 +7243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>18</v>
       </c>
@@ -7214,7 +7260,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>39</v>
       </c>
@@ -7231,7 +7277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>39</v>
       </c>
@@ -7248,7 +7294,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>39</v>
       </c>
@@ -7265,7 +7311,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>39</v>
       </c>
@@ -7282,7 +7328,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>39</v>
       </c>
@@ -7299,7 +7345,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>39</v>
       </c>
@@ -7316,7 +7362,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>39</v>
       </c>
@@ -7333,7 +7379,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>73</v>
       </c>
@@ -7350,7 +7396,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>73</v>
       </c>
@@ -7367,7 +7413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>73</v>
       </c>
@@ -7384,7 +7430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>73</v>
       </c>
@@ -7401,7 +7447,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>73</v>
       </c>
@@ -7418,7 +7464,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>73</v>
       </c>
@@ -7435,7 +7481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>73</v>
       </c>
@@ -7452,7 +7498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>73</v>
       </c>
@@ -7469,7 +7515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>73</v>
       </c>
@@ -7486,7 +7532,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>73</v>
       </c>
@@ -7503,7 +7549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>73</v>
       </c>
@@ -7520,7 +7566,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>73</v>
       </c>
@@ -7537,7 +7583,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>73</v>
       </c>
@@ -7554,7 +7600,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>73</v>
       </c>
@@ -7571,7 +7617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>73</v>
       </c>
@@ -7588,7 +7634,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>73</v>
       </c>
@@ -7605,7 +7651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>129</v>
       </c>
@@ -7622,13 +7668,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
-      <c r="A399" t="s">
-        <v>158</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:E398">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E398">
     <sortCondition ref="A398"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
